--- a/4_Mes_Supports_Cours/Vocabulaire_UML_dev.xlsx
+++ b/4_Mes_Supports_Cours/Vocabulaire_UML_dev.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>Vocabulaire UML</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>qui va POUVOIR réaliser un cas d'utilisation</t>
+  </si>
+  <si>
+    <t>action nécessaire pour réaliser une autre action</t>
+  </si>
+  <si>
+    <t>utiliser une relation d'extension pour spécifier qu'un cas d'utilisation (l'extension) étend le comportement d'un autre cas d'utilisation (la base)</t>
   </si>
 </sst>
 </file>
@@ -472,7 +478,7 @@
   <dimension ref="B1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -528,9 +534,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" ht="60">
       <c r="B6" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
@@ -539,6 +548,9 @@
     <row r="7" spans="2:4">
       <c r="B7" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>

--- a/4_Mes_Supports_Cours/Vocabulaire_UML_dev.xlsx
+++ b/4_Mes_Supports_Cours/Vocabulaire_UML_dev.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="use_case" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>Vocabulaire UML</t>
   </si>
@@ -125,6 +125,27 @@
   </si>
   <si>
     <t>utiliser une relation d'extension pour spécifier qu'un cas d'utilisation (l'extension) étend le comportement d'un autre cas d'utilisation (la base)</t>
+  </si>
+  <si>
+    <t>point après dernière action du prgm</t>
+  </si>
+  <si>
+    <t>sortie du programme (forcée, erreur?)</t>
+  </si>
+  <si>
+    <t>utilisateur / système</t>
+  </si>
+  <si>
+    <t>input utilisateur</t>
+  </si>
+  <si>
+    <t>reception du programme de l'input user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">condition </t>
+  </si>
+  <si>
+    <t>outcome de la condition?</t>
   </si>
 </sst>
 </file>
@@ -477,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -574,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -613,6 +634,9 @@
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
@@ -621,6 +645,9 @@
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
@@ -629,6 +656,9 @@
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
@@ -637,6 +667,9 @@
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
@@ -645,6 +678,9 @@
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
@@ -653,6 +689,9 @@
       <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
@@ -660,6 +699,9 @@
     <row r="10" spans="2:4">
       <c r="B10" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
